--- a/data/phenological_monitoring/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring/phenological_monitoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/phenological_monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E945E284-26A6-154A-80C9-D6BB87B9774E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BD4089-A683-8B40-BD4D-75E5AB52D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="684">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1305,9 +1305,6 @@
   </si>
   <si>
     <t>Prvi_CoolS/CoolF_B3_R15_nitro</t>
-  </si>
-  <si>
-    <t>116: main stem 2, smaller branch 4</t>
   </si>
   <si>
     <t>Prvi_CoolS/WarmF_B1_R1</t>
@@ -2083,6 +2080,15 @@
   </si>
   <si>
     <t>doy179:dead</t>
+  </si>
+  <si>
+    <t>doy178:dead</t>
+  </si>
+  <si>
+    <t>116: main stem 2, smaller branch 4; doy182: apical shoot almost dead</t>
+  </si>
+  <si>
+    <t>doy182: apical shoot dead</t>
   </si>
 </sst>
 </file>
@@ -2974,11 +2980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB631"/>
+  <dimension ref="A1:AC631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" zoomScale="191" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB617" sqref="AB617"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="191" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC437" sqref="AC437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2987,7 +2993,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3072,8 +3078,11 @@
       <c r="AB1" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3156,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3488,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3654,7 +3663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3903,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3986,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -26123,7 +26132,7 @@
         <v>295</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G279" s="1">
         <v>2</v>
@@ -26183,13 +26192,13 @@
         <v>308</v>
       </c>
       <c r="Z279" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA279" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB279" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="280" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
@@ -26518,13 +26527,13 @@
         <v>308</v>
       </c>
       <c r="Z283" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA283" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB283" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.2">
@@ -29761,13 +29770,13 @@
         <v>308</v>
       </c>
       <c r="Z322" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA322" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB322" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="323" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
@@ -29930,13 +29939,13 @@
         <v>308</v>
       </c>
       <c r="Z324" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA324" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB324" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="325" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
@@ -32263,7 +32272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -32346,7 +32355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -32429,7 +32438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -32506,16 +32515,16 @@
         <v>308</v>
       </c>
       <c r="Z355" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA355" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB355" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -32598,7 +32607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -32681,7 +32690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -32764,7 +32773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -32847,7 +32856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -32930,7 +32939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -33013,7 +33022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -33095,8 +33104,11 @@
       <c r="AB362" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC362" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -33178,8 +33190,11 @@
       <c r="AB363" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC363" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -33261,8 +33276,11 @@
       <c r="AB364" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC364" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -33344,8 +33362,11 @@
       <c r="AB365" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC365" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -33427,8 +33448,11 @@
       <c r="AB366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC366" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -33510,8 +33534,11 @@
       <c r="AB367" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC367" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -33593,8 +33620,11 @@
       <c r="AB368" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC368" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -33679,8 +33709,11 @@
       <c r="AB369" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC369" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -33762,8 +33795,11 @@
       <c r="AB370" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC370" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -33845,8 +33881,11 @@
       <c r="AB371" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC371" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -33928,8 +33967,11 @@
       <c r="AB372" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC372" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -33945,6 +33987,9 @@
       <c r="E373" t="s">
         <v>392</v>
       </c>
+      <c r="F373" t="s">
+        <v>683</v>
+      </c>
       <c r="G373">
         <v>4</v>
       </c>
@@ -34011,8 +34056,11 @@
       <c r="AB373" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC373" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -34094,8 +34142,11 @@
       <c r="AB374" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC374" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -34177,8 +34228,11 @@
       <c r="AB375" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC375" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -34260,8 +34314,11 @@
       <c r="AB376" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC376" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -34343,8 +34400,11 @@
       <c r="AB377" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC377" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -34426,8 +34486,11 @@
       <c r="AB378" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC378" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -34509,8 +34572,11 @@
       <c r="AB379" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC379" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -34595,8 +34661,11 @@
       <c r="AB380" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC380" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -34678,8 +34747,11 @@
       <c r="AB381" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC381" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -34761,8 +34833,11 @@
       <c r="AB382" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC382" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -34844,8 +34919,11 @@
       <c r="AB383" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC383" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -34927,8 +35005,11 @@
       <c r="AB384" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC384" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -35010,8 +35091,11 @@
       <c r="AB385" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC385" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -35096,8 +35180,11 @@
       <c r="AB386" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC386" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -35179,8 +35266,11 @@
       <c r="AB387" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC387" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="388" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -35262,8 +35352,11 @@
       <c r="AB388" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC388" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -35345,8 +35438,11 @@
       <c r="AB389" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC389" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -35428,8 +35524,11 @@
       <c r="AB390" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC390" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -35446,78 +35545,81 @@
         <v>392</v>
       </c>
       <c r="F391" t="s">
+        <v>682</v>
+      </c>
+      <c r="G391">
+        <v>2</v>
+      </c>
+      <c r="H391" t="s">
+        <v>10</v>
+      </c>
+      <c r="I391">
+        <v>2</v>
+      </c>
+      <c r="J391">
+        <v>2</v>
+      </c>
+      <c r="K391">
+        <v>2</v>
+      </c>
+      <c r="L391">
+        <v>2</v>
+      </c>
+      <c r="M391">
+        <v>3</v>
+      </c>
+      <c r="N391">
+        <v>2</v>
+      </c>
+      <c r="O391">
+        <v>3</v>
+      </c>
+      <c r="P391">
+        <v>4</v>
+      </c>
+      <c r="Q391">
+        <v>4</v>
+      </c>
+      <c r="R391">
+        <v>4</v>
+      </c>
+      <c r="S391">
+        <v>4</v>
+      </c>
+      <c r="T391">
+        <v>4</v>
+      </c>
+      <c r="U391" s="3">
+        <v>4</v>
+      </c>
+      <c r="V391" s="3">
+        <v>4</v>
+      </c>
+      <c r="W391" s="3">
+        <v>4</v>
+      </c>
+      <c r="X391" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y391" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z391" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA391" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB391" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC391" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="G391">
-        <v>2</v>
-      </c>
-      <c r="H391" t="s">
-        <v>10</v>
-      </c>
-      <c r="I391">
-        <v>2</v>
-      </c>
-      <c r="J391">
-        <v>2</v>
-      </c>
-      <c r="K391">
-        <v>2</v>
-      </c>
-      <c r="L391">
-        <v>2</v>
-      </c>
-      <c r="M391">
-        <v>3</v>
-      </c>
-      <c r="N391">
-        <v>2</v>
-      </c>
-      <c r="O391">
-        <v>3</v>
-      </c>
-      <c r="P391">
-        <v>4</v>
-      </c>
-      <c r="Q391">
-        <v>4</v>
-      </c>
-      <c r="R391">
-        <v>4</v>
-      </c>
-      <c r="S391">
-        <v>4</v>
-      </c>
-      <c r="T391">
-        <v>4</v>
-      </c>
-      <c r="U391" s="3">
-        <v>4</v>
-      </c>
-      <c r="V391" s="3">
-        <v>4</v>
-      </c>
-      <c r="W391" s="3">
-        <v>4</v>
-      </c>
-      <c r="X391" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y391" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z391" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA391" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB391" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="B392" s="1">
         <v>1</v>
@@ -35532,78 +35634,81 @@
         <v>392</v>
       </c>
       <c r="F392" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G392" s="1">
+        <v>2</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I392" s="1">
+        <v>2</v>
+      </c>
+      <c r="J392" s="1">
+        <v>2</v>
+      </c>
+      <c r="K392" s="1">
+        <v>2</v>
+      </c>
+      <c r="L392" s="1">
+        <v>2</v>
+      </c>
+      <c r="M392" s="1">
+        <v>2</v>
+      </c>
+      <c r="N392" s="1">
+        <v>2</v>
+      </c>
+      <c r="O392" s="1">
+        <v>2</v>
+      </c>
+      <c r="P392" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q392" s="1">
+        <v>2</v>
+      </c>
+      <c r="R392" s="1">
+        <v>2</v>
+      </c>
+      <c r="S392" s="1">
+        <v>2</v>
+      </c>
+      <c r="T392" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U392" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V392" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="W392" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="X392" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y392" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z392" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA392" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB392" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC392" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="393" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>425</v>
-      </c>
-      <c r="G392" s="1">
-        <v>2</v>
-      </c>
-      <c r="H392" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I392" s="1">
-        <v>2</v>
-      </c>
-      <c r="J392" s="1">
-        <v>2</v>
-      </c>
-      <c r="K392" s="1">
-        <v>2</v>
-      </c>
-      <c r="L392" s="1">
-        <v>2</v>
-      </c>
-      <c r="M392" s="1">
-        <v>2</v>
-      </c>
-      <c r="N392" s="1">
-        <v>2</v>
-      </c>
-      <c r="O392" s="1">
-        <v>2</v>
-      </c>
-      <c r="P392" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q392" s="1">
-        <v>2</v>
-      </c>
-      <c r="R392" s="1">
-        <v>2</v>
-      </c>
-      <c r="S392" s="1">
-        <v>2</v>
-      </c>
-      <c r="T392" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="U392" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="V392" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="W392" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="X392" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y392" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z392" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA392" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB392" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="393" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>426</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -35683,10 +35788,13 @@
       <c r="AB393" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC393" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B394" s="1">
         <v>1</v>
@@ -35766,10 +35874,13 @@
       <c r="AB394" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC394" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -35849,10 +35960,13 @@
       <c r="AB395" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC395" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B396" s="1">
         <v>1</v>
@@ -35932,10 +36046,13 @@
       <c r="AB396" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC396" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B397">
         <v>2</v>
@@ -36015,10 +36132,13 @@
       <c r="AB397" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC397" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B398">
         <v>2</v>
@@ -36098,10 +36218,13 @@
       <c r="AB398" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC398" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B399" s="1">
         <v>2</v>
@@ -36184,10 +36307,13 @@
       <c r="AB399" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC399" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B400">
         <v>2</v>
@@ -36267,10 +36393,13 @@
       <c r="AB400" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC400" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B401" s="1">
         <v>2</v>
@@ -36350,10 +36479,13 @@
       <c r="AB401" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC401" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B402">
         <v>3</v>
@@ -36368,7 +36500,7 @@
         <v>392</v>
       </c>
       <c r="F402" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G402">
         <v>2</v>
@@ -36428,18 +36560,21 @@
         <v>308</v>
       </c>
       <c r="Z402" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA402" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB402" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+      <c r="AC402" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B403" s="1">
         <v>3</v>
@@ -36519,10 +36654,13 @@
       <c r="AB403" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC403" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B404">
         <v>3</v>
@@ -36537,78 +36675,81 @@
         <v>392</v>
       </c>
       <c r="F404" t="s">
+        <v>437</v>
+      </c>
+      <c r="G404">
+        <v>4</v>
+      </c>
+      <c r="H404" t="s">
+        <v>10</v>
+      </c>
+      <c r="I404">
+        <v>4</v>
+      </c>
+      <c r="J404">
+        <v>4</v>
+      </c>
+      <c r="K404">
+        <v>4</v>
+      </c>
+      <c r="L404">
+        <v>4</v>
+      </c>
+      <c r="M404">
+        <v>4</v>
+      </c>
+      <c r="N404">
+        <v>4</v>
+      </c>
+      <c r="O404">
+        <v>4</v>
+      </c>
+      <c r="P404">
+        <v>4</v>
+      </c>
+      <c r="Q404">
+        <v>4</v>
+      </c>
+      <c r="R404">
+        <v>4</v>
+      </c>
+      <c r="S404">
+        <v>4</v>
+      </c>
+      <c r="T404">
+        <v>4</v>
+      </c>
+      <c r="U404" s="3">
+        <v>4</v>
+      </c>
+      <c r="V404" s="3">
+        <v>4</v>
+      </c>
+      <c r="W404" s="3">
+        <v>4</v>
+      </c>
+      <c r="X404" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y404" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z404" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA404" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB404" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC404" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="G404">
-        <v>4</v>
-      </c>
-      <c r="H404" t="s">
-        <v>10</v>
-      </c>
-      <c r="I404">
-        <v>4</v>
-      </c>
-      <c r="J404">
-        <v>4</v>
-      </c>
-      <c r="K404">
-        <v>4</v>
-      </c>
-      <c r="L404">
-        <v>4</v>
-      </c>
-      <c r="M404">
-        <v>4</v>
-      </c>
-      <c r="N404">
-        <v>4</v>
-      </c>
-      <c r="O404">
-        <v>4</v>
-      </c>
-      <c r="P404">
-        <v>4</v>
-      </c>
-      <c r="Q404">
-        <v>4</v>
-      </c>
-      <c r="R404">
-        <v>4</v>
-      </c>
-      <c r="S404">
-        <v>4</v>
-      </c>
-      <c r="T404">
-        <v>4</v>
-      </c>
-      <c r="U404" s="3">
-        <v>4</v>
-      </c>
-      <c r="V404" s="3">
-        <v>4</v>
-      </c>
-      <c r="W404" s="3">
-        <v>4</v>
-      </c>
-      <c r="X404" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y404" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z404" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA404" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB404" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A405" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="B405" s="1">
         <v>3</v>
@@ -36688,10 +36829,13 @@
       <c r="AB405" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC405" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B406">
         <v>3</v>
@@ -36771,10 +36915,13 @@
       <c r="AB406" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC406" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B407" s="1">
         <v>1</v>
@@ -36854,10 +37001,13 @@
       <c r="AB407" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC407" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -36937,10 +37087,13 @@
       <c r="AB408" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC408" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B409" s="1">
         <v>1</v>
@@ -37020,10 +37173,13 @@
       <c r="AB409" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC409" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -37103,10 +37259,13 @@
       <c r="AB410" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC410" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B411" s="1">
         <v>1</v>
@@ -37186,10 +37345,13 @@
       <c r="AB411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC411" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -37269,10 +37431,13 @@
       <c r="AB412" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC412" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B413" s="1">
         <v>2</v>
@@ -37352,10 +37517,13 @@
       <c r="AB413" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC413" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B414">
         <v>2</v>
@@ -37435,10 +37603,13 @@
       <c r="AB414" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC414" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B415" s="1">
         <v>2</v>
@@ -37518,10 +37689,13 @@
       <c r="AB415" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC415" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -37593,18 +37767,21 @@
         <v>308</v>
       </c>
       <c r="Z416" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA416" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB416" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+      <c r="AC416" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="417" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B417" s="1">
         <v>3</v>
@@ -37687,10 +37864,13 @@
       <c r="AB417" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC417" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="418" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B418">
         <v>3</v>
@@ -37770,10 +37950,13 @@
       <c r="AB418" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC418" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B419" s="1">
         <v>3</v>
@@ -37853,10 +38036,13 @@
       <c r="AB419" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC419" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B420">
         <v>3</v>
@@ -37936,10 +38122,13 @@
       <c r="AB420" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC420" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B421">
         <v>3</v>
@@ -38022,10 +38211,13 @@
       <c r="AB421" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC421" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="422" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B422" s="1">
         <v>1</v>
@@ -38105,10 +38297,13 @@
       <c r="AB422" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC422" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -38123,78 +38318,81 @@
         <v>392</v>
       </c>
       <c r="F423" t="s">
+        <v>457</v>
+      </c>
+      <c r="G423" t="s">
+        <v>10</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+      <c r="I423">
+        <v>1</v>
+      </c>
+      <c r="J423">
+        <v>1</v>
+      </c>
+      <c r="K423">
+        <v>1</v>
+      </c>
+      <c r="L423" t="s">
+        <v>10</v>
+      </c>
+      <c r="M423" t="s">
+        <v>10</v>
+      </c>
+      <c r="N423" t="s">
+        <v>10</v>
+      </c>
+      <c r="O423" t="s">
+        <v>10</v>
+      </c>
+      <c r="P423" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>10</v>
+      </c>
+      <c r="R423" t="s">
+        <v>10</v>
+      </c>
+      <c r="S423" t="s">
+        <v>10</v>
+      </c>
+      <c r="T423" t="s">
+        <v>10</v>
+      </c>
+      <c r="U423" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="V423" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="W423" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="X423" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y423" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z423" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA423" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB423" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC423" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="424" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="G423" t="s">
-        <v>10</v>
-      </c>
-      <c r="H423">
-        <v>1</v>
-      </c>
-      <c r="I423">
-        <v>1</v>
-      </c>
-      <c r="J423">
-        <v>1</v>
-      </c>
-      <c r="K423">
-        <v>1</v>
-      </c>
-      <c r="L423" t="s">
-        <v>10</v>
-      </c>
-      <c r="M423" t="s">
-        <v>10</v>
-      </c>
-      <c r="N423" t="s">
-        <v>10</v>
-      </c>
-      <c r="O423" t="s">
-        <v>10</v>
-      </c>
-      <c r="P423" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q423" t="s">
-        <v>10</v>
-      </c>
-      <c r="R423" t="s">
-        <v>10</v>
-      </c>
-      <c r="S423" t="s">
-        <v>10</v>
-      </c>
-      <c r="T423" t="s">
-        <v>10</v>
-      </c>
-      <c r="U423" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="V423" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="W423" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="X423" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y423" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z423" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA423" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB423" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A424" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="B424" s="1">
         <v>1</v>
@@ -38274,10 +38472,13 @@
       <c r="AB424" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC424" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -38357,10 +38558,13 @@
       <c r="AB425" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC425" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B426" s="1">
         <v>1</v>
@@ -38440,10 +38644,13 @@
       <c r="AB426" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC426" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B427">
         <v>2</v>
@@ -38523,10 +38730,13 @@
       <c r="AB427" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC427" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B428" s="1">
         <v>2</v>
@@ -38606,10 +38816,13 @@
       <c r="AB428" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC428" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -38624,78 +38837,81 @@
         <v>392</v>
       </c>
       <c r="F429" t="s">
+        <v>464</v>
+      </c>
+      <c r="G429" t="s">
+        <v>10</v>
+      </c>
+      <c r="H429" t="s">
+        <v>10</v>
+      </c>
+      <c r="I429" t="s">
+        <v>10</v>
+      </c>
+      <c r="J429" t="s">
+        <v>10</v>
+      </c>
+      <c r="K429" t="s">
+        <v>10</v>
+      </c>
+      <c r="L429">
+        <v>2</v>
+      </c>
+      <c r="M429">
+        <v>2</v>
+      </c>
+      <c r="N429">
+        <v>2</v>
+      </c>
+      <c r="O429">
+        <v>3</v>
+      </c>
+      <c r="P429">
+        <v>4</v>
+      </c>
+      <c r="Q429">
+        <v>4</v>
+      </c>
+      <c r="R429">
+        <v>4</v>
+      </c>
+      <c r="S429">
+        <v>4</v>
+      </c>
+      <c r="T429">
+        <v>4</v>
+      </c>
+      <c r="U429" s="3">
+        <v>4</v>
+      </c>
+      <c r="V429" s="3">
+        <v>4</v>
+      </c>
+      <c r="W429" s="3">
+        <v>4</v>
+      </c>
+      <c r="X429" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y429" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z429" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA429" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB429" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC429" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="G429" t="s">
-        <v>10</v>
-      </c>
-      <c r="H429" t="s">
-        <v>10</v>
-      </c>
-      <c r="I429" t="s">
-        <v>10</v>
-      </c>
-      <c r="J429" t="s">
-        <v>10</v>
-      </c>
-      <c r="K429" t="s">
-        <v>10</v>
-      </c>
-      <c r="L429">
-        <v>2</v>
-      </c>
-      <c r="M429">
-        <v>2</v>
-      </c>
-      <c r="N429">
-        <v>2</v>
-      </c>
-      <c r="O429">
-        <v>3</v>
-      </c>
-      <c r="P429">
-        <v>4</v>
-      </c>
-      <c r="Q429">
-        <v>4</v>
-      </c>
-      <c r="R429">
-        <v>4</v>
-      </c>
-      <c r="S429">
-        <v>4</v>
-      </c>
-      <c r="T429">
-        <v>4</v>
-      </c>
-      <c r="U429" s="3">
-        <v>4</v>
-      </c>
-      <c r="V429" s="3">
-        <v>4</v>
-      </c>
-      <c r="W429" s="3">
-        <v>4</v>
-      </c>
-      <c r="X429" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y429" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z429" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA429" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB429" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A430" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="B430" s="1">
         <v>2</v>
@@ -38775,10 +38991,13 @@
       <c r="AB430" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC430" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B431">
         <v>2</v>
@@ -38792,6 +39011,9 @@
       <c r="E431" t="s">
         <v>392</v>
       </c>
+      <c r="F431" t="s">
+        <v>681</v>
+      </c>
       <c r="G431" t="s">
         <v>10</v>
       </c>
@@ -38855,13 +39077,16 @@
       <c r="AA431" s="1">
         <v>4</v>
       </c>
-      <c r="AB431" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB431" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC431" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="432" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B432" s="1">
         <v>3</v>
@@ -38941,10 +39166,13 @@
       <c r="AB432" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC432" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B433">
         <v>3</v>
@@ -39024,10 +39252,13 @@
       <c r="AB433" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC433" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B434" s="1">
         <v>3</v>
@@ -39107,10 +39338,13 @@
       <c r="AB434" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC434" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B435">
         <v>3</v>
@@ -39190,10 +39424,13 @@
       <c r="AB435" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC435" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B436" s="1">
         <v>3</v>
@@ -39273,10 +39510,13 @@
       <c r="AB436" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC436" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -39356,10 +39596,13 @@
       <c r="AB437" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC437" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B438" s="1">
         <v>1</v>
@@ -39436,10 +39679,13 @@
       <c r="AB438" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC438" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -39519,10 +39765,13 @@
       <c r="AB439" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC439" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B440" s="1">
         <v>1</v>
@@ -39602,10 +39851,13 @@
       <c r="AB440" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC440" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -39685,10 +39937,13 @@
       <c r="AB441" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC441" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B442" s="1">
         <v>2</v>
@@ -39703,78 +39958,81 @@
         <v>392</v>
       </c>
       <c r="F442" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H442" s="1">
+        <v>4</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P442" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q442" s="1">
+        <v>3</v>
+      </c>
+      <c r="R442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U442" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="V442" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="W442" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="X442" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y442" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z442" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA442" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB442" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC442" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="443" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
         <v>479</v>
-      </c>
-      <c r="G442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H442" s="1">
-        <v>4</v>
-      </c>
-      <c r="I442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P442" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q442" s="1">
-        <v>3</v>
-      </c>
-      <c r="R442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T442" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U442" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="V442" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="W442" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="X442" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y442" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z442" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA442" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB442" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="443" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>480</v>
       </c>
       <c r="B443">
         <v>2</v>
@@ -39854,10 +40112,13 @@
       <c r="AB443" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC443" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B444" s="1">
         <v>2</v>
@@ -39907,43 +40168,46 @@
       <c r="Q444" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R444" s="1">
-        <v>4</v>
-      </c>
-      <c r="S444" s="1">
-        <v>4</v>
-      </c>
-      <c r="T444" s="1">
-        <v>4</v>
-      </c>
-      <c r="U444" s="4">
-        <v>4</v>
-      </c>
-      <c r="V444" s="4">
-        <v>4</v>
-      </c>
-      <c r="W444" s="4">
-        <v>4</v>
-      </c>
-      <c r="X444" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y444" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z444" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA444" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB444" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="S444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="T444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="W444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="X444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB444" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC444" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="445" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B445">
         <v>2</v>
@@ -39990,43 +40254,46 @@
       <c r="Q445">
         <v>4</v>
       </c>
-      <c r="R445" t="s">
-        <v>10</v>
-      </c>
-      <c r="S445" t="s">
-        <v>10</v>
-      </c>
-      <c r="T445" t="s">
-        <v>10</v>
-      </c>
-      <c r="U445" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="V445" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="W445" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="X445" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y445" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z445" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA445" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB445" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="R445" s="1">
+        <v>4</v>
+      </c>
+      <c r="S445" s="1">
+        <v>4</v>
+      </c>
+      <c r="T445" s="1">
+        <v>4</v>
+      </c>
+      <c r="U445" s="4">
+        <v>4</v>
+      </c>
+      <c r="V445" s="4">
+        <v>4</v>
+      </c>
+      <c r="W445" s="4">
+        <v>4</v>
+      </c>
+      <c r="X445" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y445" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z445" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA445" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB445" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B446" s="1">
         <v>2</v>
@@ -40106,10 +40373,13 @@
       <c r="AB446" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC446" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B447">
         <v>3</v>
@@ -40189,10 +40459,13 @@
       <c r="AB447" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC447" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B448" s="1">
         <v>3</v>
@@ -40272,10 +40545,13 @@
       <c r="AB448" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC448" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B449">
         <v>3</v>
@@ -40355,10 +40631,13 @@
       <c r="AB449" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC449" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B450" s="1">
         <v>3</v>
@@ -40438,10 +40717,13 @@
       <c r="AB450" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC450" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B451">
         <v>3</v>
@@ -40521,10 +40803,13 @@
       <c r="AB451" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC451" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B452" s="1">
         <v>1</v>
@@ -40533,81 +40818,81 @@
         <v>7</v>
       </c>
       <c r="D452" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E452" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E452" s="1" t="s">
+      <c r="G452" s="1">
+        <v>1</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I452" s="1">
+        <v>2</v>
+      </c>
+      <c r="J452" s="1">
+        <v>2</v>
+      </c>
+      <c r="K452" s="1">
+        <v>2</v>
+      </c>
+      <c r="L452" s="1">
+        <v>2</v>
+      </c>
+      <c r="M452" s="1">
+        <v>3</v>
+      </c>
+      <c r="N452" s="1">
+        <v>3</v>
+      </c>
+      <c r="O452" s="1">
+        <v>3</v>
+      </c>
+      <c r="P452" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q452" s="1">
+        <v>4</v>
+      </c>
+      <c r="R452" s="1">
+        <v>3</v>
+      </c>
+      <c r="S452" s="1">
+        <v>3</v>
+      </c>
+      <c r="T452" s="1">
+        <v>4</v>
+      </c>
+      <c r="U452" s="1">
+        <v>4</v>
+      </c>
+      <c r="V452" s="4">
+        <v>4</v>
+      </c>
+      <c r="W452" s="4">
+        <v>4</v>
+      </c>
+      <c r="X452" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y452" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z452" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA452" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB452" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
         <v>491</v>
-      </c>
-      <c r="G452" s="1">
-        <v>1</v>
-      </c>
-      <c r="H452" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I452" s="1">
-        <v>2</v>
-      </c>
-      <c r="J452" s="1">
-        <v>2</v>
-      </c>
-      <c r="K452" s="1">
-        <v>2</v>
-      </c>
-      <c r="L452" s="1">
-        <v>2</v>
-      </c>
-      <c r="M452" s="1">
-        <v>3</v>
-      </c>
-      <c r="N452" s="1">
-        <v>3</v>
-      </c>
-      <c r="O452" s="1">
-        <v>3</v>
-      </c>
-      <c r="P452" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q452" s="1">
-        <v>4</v>
-      </c>
-      <c r="R452" s="1">
-        <v>3</v>
-      </c>
-      <c r="S452" s="1">
-        <v>3</v>
-      </c>
-      <c r="T452" s="1">
-        <v>4</v>
-      </c>
-      <c r="U452" s="1">
-        <v>4</v>
-      </c>
-      <c r="V452" s="4">
-        <v>4</v>
-      </c>
-      <c r="W452" s="4">
-        <v>4</v>
-      </c>
-      <c r="X452" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y452" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z452" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA452" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB452" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="453" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>492</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -40616,11 +40901,11 @@
         <v>7</v>
       </c>
       <c r="D453" t="s">
+        <v>489</v>
+      </c>
+      <c r="E453" t="s">
         <v>490</v>
       </c>
-      <c r="E453" t="s">
-        <v>491</v>
-      </c>
       <c r="G453">
         <v>1</v>
       </c>
@@ -40688,9 +40973,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B454" s="1">
         <v>1</v>
@@ -40699,10 +40984,10 @@
         <v>7</v>
       </c>
       <c r="D454" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E454" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G454" s="1">
         <v>0</v>
@@ -40771,9 +41056,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -40782,10 +41067,10 @@
         <v>7</v>
       </c>
       <c r="D455" t="s">
+        <v>489</v>
+      </c>
+      <c r="E455" t="s">
         <v>490</v>
-      </c>
-      <c r="E455" t="s">
-        <v>491</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -40854,9 +41139,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B456" s="1">
         <v>1</v>
@@ -40865,10 +41150,10 @@
         <v>7</v>
       </c>
       <c r="D456" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E456" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G456" s="1">
         <v>0</v>
@@ -40937,9 +41222,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -40948,13 +41233,13 @@
         <v>7</v>
       </c>
       <c r="D457" t="s">
+        <v>489</v>
+      </c>
+      <c r="E457" t="s">
         <v>490</v>
       </c>
-      <c r="E457" t="s">
-        <v>491</v>
-      </c>
       <c r="F457" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G457">
         <v>2</v>
@@ -41023,9 +41308,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B458" s="1">
         <v>2</v>
@@ -41034,11 +41319,11 @@
         <v>7</v>
       </c>
       <c r="D458" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E458" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E458" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="G458" s="1">
         <v>2</v>
       </c>
@@ -41106,9 +41391,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -41117,11 +41402,11 @@
         <v>7</v>
       </c>
       <c r="D459" t="s">
+        <v>489</v>
+      </c>
+      <c r="E459" t="s">
         <v>490</v>
       </c>
-      <c r="E459" t="s">
-        <v>491</v>
-      </c>
       <c r="G459">
         <v>1</v>
       </c>
@@ -41189,9 +41474,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B460" s="1">
         <v>2</v>
@@ -41200,10 +41485,10 @@
         <v>7</v>
       </c>
       <c r="D460" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E460" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E460" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G460" s="1">
         <v>0</v>
@@ -41272,9 +41557,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -41283,10 +41568,10 @@
         <v>7</v>
       </c>
       <c r="D461" t="s">
+        <v>489</v>
+      </c>
+      <c r="E461" t="s">
         <v>490</v>
-      </c>
-      <c r="E461" t="s">
-        <v>491</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -41355,9 +41640,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B462" s="1">
         <v>3</v>
@@ -41366,11 +41651,11 @@
         <v>7</v>
       </c>
       <c r="D462" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E462" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E462" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="G462" s="1">
         <v>1</v>
       </c>
@@ -41438,9 +41723,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B463">
         <v>3</v>
@@ -41449,11 +41734,11 @@
         <v>7</v>
       </c>
       <c r="D463" t="s">
+        <v>489</v>
+      </c>
+      <c r="E463" t="s">
         <v>490</v>
       </c>
-      <c r="E463" t="s">
-        <v>491</v>
-      </c>
       <c r="G463">
         <v>1</v>
       </c>
@@ -41521,9 +41806,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B464" s="1">
         <v>3</v>
@@ -41532,10 +41817,10 @@
         <v>7</v>
       </c>
       <c r="D464" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E464" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G464" s="1">
         <v>1</v>
@@ -41606,7 +41891,7 @@
     </row>
     <row r="465" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B465">
         <v>3</v>
@@ -41615,10 +41900,10 @@
         <v>7</v>
       </c>
       <c r="D465" t="s">
+        <v>489</v>
+      </c>
+      <c r="E465" t="s">
         <v>490</v>
-      </c>
-      <c r="E465" t="s">
-        <v>491</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -41689,7 +41974,7 @@
     </row>
     <row r="466" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B466">
         <v>3</v>
@@ -41698,10 +41983,10 @@
         <v>7</v>
       </c>
       <c r="D466" t="s">
+        <v>489</v>
+      </c>
+      <c r="E466" t="s">
         <v>490</v>
-      </c>
-      <c r="E466" t="s">
-        <v>491</v>
       </c>
       <c r="G466">
         <v>1</v>
@@ -41772,7 +42057,7 @@
     </row>
     <row r="467" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B467" s="1">
         <v>1</v>
@@ -41781,10 +42066,10 @@
         <v>26</v>
       </c>
       <c r="D467" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E467" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G467" s="1">
         <v>0</v>
@@ -41855,7 +42140,7 @@
     </row>
     <row r="468" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -41864,13 +42149,13 @@
         <v>26</v>
       </c>
       <c r="D468" t="s">
+        <v>489</v>
+      </c>
+      <c r="E468" t="s">
         <v>490</v>
       </c>
-      <c r="E468" t="s">
-        <v>491</v>
-      </c>
       <c r="F468" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G468">
         <v>1</v>
@@ -41941,7 +42226,7 @@
     </row>
     <row r="469" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B469" s="1">
         <v>1</v>
@@ -41950,13 +42235,13 @@
         <v>26</v>
       </c>
       <c r="D469" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E469" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E469" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="F469" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G469" s="1">
         <v>1</v>
@@ -42027,7 +42312,7 @@
     </row>
     <row r="470" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -42036,10 +42321,10 @@
         <v>26</v>
       </c>
       <c r="D470" t="s">
+        <v>489</v>
+      </c>
+      <c r="E470" t="s">
         <v>490</v>
-      </c>
-      <c r="E470" t="s">
-        <v>491</v>
       </c>
       <c r="G470">
         <v>0</v>
@@ -42110,7 +42395,7 @@
     </row>
     <row r="471" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B471" s="1">
         <v>1</v>
@@ -42119,10 +42404,10 @@
         <v>26</v>
       </c>
       <c r="D471" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E471" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E471" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G471" s="1">
         <v>1</v>
@@ -42193,7 +42478,7 @@
     </row>
     <row r="472" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B472">
         <v>2</v>
@@ -42202,10 +42487,10 @@
         <v>26</v>
       </c>
       <c r="D472" t="s">
+        <v>489</v>
+      </c>
+      <c r="E472" t="s">
         <v>490</v>
-      </c>
-      <c r="E472" t="s">
-        <v>491</v>
       </c>
       <c r="G472">
         <v>1</v>
@@ -42276,7 +42561,7 @@
     </row>
     <row r="473" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B473" s="1">
         <v>2</v>
@@ -42285,10 +42570,10 @@
         <v>26</v>
       </c>
       <c r="D473" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E473" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E473" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G473" s="1">
         <v>0</v>
@@ -42359,7 +42644,7 @@
     </row>
     <row r="474" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B474">
         <v>2</v>
@@ -42368,10 +42653,10 @@
         <v>26</v>
       </c>
       <c r="D474" t="s">
+        <v>489</v>
+      </c>
+      <c r="E474" t="s">
         <v>490</v>
-      </c>
-      <c r="E474" t="s">
-        <v>491</v>
       </c>
       <c r="G474">
         <v>0</v>
@@ -42442,7 +42727,7 @@
     </row>
     <row r="475" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B475" s="1">
         <v>2</v>
@@ -42451,13 +42736,13 @@
         <v>26</v>
       </c>
       <c r="D475" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E475" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E475" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="F475" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G475" s="1">
         <v>2</v>
@@ -42528,7 +42813,7 @@
     </row>
     <row r="476" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B476">
         <v>2</v>
@@ -42537,10 +42822,10 @@
         <v>26</v>
       </c>
       <c r="D476" t="s">
+        <v>489</v>
+      </c>
+      <c r="E476" t="s">
         <v>490</v>
-      </c>
-      <c r="E476" t="s">
-        <v>491</v>
       </c>
       <c r="G476">
         <v>0</v>
@@ -42611,7 +42896,7 @@
     </row>
     <row r="477" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B477" s="1">
         <v>3</v>
@@ -42620,10 +42905,10 @@
         <v>26</v>
       </c>
       <c r="D477" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E477" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G477" s="1">
         <v>1</v>
@@ -42694,7 +42979,7 @@
     </row>
     <row r="478" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B478">
         <v>3</v>
@@ -42703,10 +42988,10 @@
         <v>26</v>
       </c>
       <c r="D478" t="s">
+        <v>489</v>
+      </c>
+      <c r="E478" t="s">
         <v>490</v>
-      </c>
-      <c r="E478" t="s">
-        <v>491</v>
       </c>
       <c r="G478">
         <v>0</v>
@@ -42777,7 +43062,7 @@
     </row>
     <row r="479" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B479" s="1">
         <v>3</v>
@@ -42786,10 +43071,10 @@
         <v>26</v>
       </c>
       <c r="D479" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E479" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E479" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G479" s="1">
         <v>1</v>
@@ -42860,7 +43145,7 @@
     </row>
     <row r="480" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B480">
         <v>3</v>
@@ -42869,10 +43154,10 @@
         <v>26</v>
       </c>
       <c r="D480" t="s">
+        <v>489</v>
+      </c>
+      <c r="E480" t="s">
         <v>490</v>
-      </c>
-      <c r="E480" t="s">
-        <v>491</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -42943,7 +43228,7 @@
     </row>
     <row r="481" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B481" s="1">
         <v>3</v>
@@ -42952,10 +43237,10 @@
         <v>26</v>
       </c>
       <c r="D481" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E481" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E481" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G481" s="1">
         <v>0</v>
@@ -43026,7 +43311,7 @@
     </row>
     <row r="482" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -43035,10 +43320,10 @@
         <v>42</v>
       </c>
       <c r="D482" t="s">
+        <v>489</v>
+      </c>
+      <c r="E482" t="s">
         <v>490</v>
-      </c>
-      <c r="E482" t="s">
-        <v>491</v>
       </c>
       <c r="G482">
         <v>1</v>
@@ -43109,7 +43394,7 @@
     </row>
     <row r="483" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B483" s="1">
         <v>1</v>
@@ -43118,10 +43403,10 @@
         <v>42</v>
       </c>
       <c r="D483" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E483" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E483" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G483" s="1">
         <v>0</v>
@@ -43192,7 +43477,7 @@
     </row>
     <row r="484" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -43201,10 +43486,10 @@
         <v>42</v>
       </c>
       <c r="D484" t="s">
+        <v>489</v>
+      </c>
+      <c r="E484" t="s">
         <v>490</v>
-      </c>
-      <c r="E484" t="s">
-        <v>491</v>
       </c>
       <c r="G484">
         <v>1</v>
@@ -43275,7 +43560,7 @@
     </row>
     <row r="485" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B485" s="1">
         <v>1</v>
@@ -43284,10 +43569,10 @@
         <v>42</v>
       </c>
       <c r="D485" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E485" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E485" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G485" s="1">
         <v>0</v>
@@ -43358,7 +43643,7 @@
     </row>
     <row r="486" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -43367,10 +43652,10 @@
         <v>42</v>
       </c>
       <c r="D486" t="s">
+        <v>489</v>
+      </c>
+      <c r="E486" t="s">
         <v>490</v>
-      </c>
-      <c r="E486" t="s">
-        <v>491</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -43441,7 +43726,7 @@
     </row>
     <row r="487" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B487" s="1">
         <v>2</v>
@@ -43450,10 +43735,10 @@
         <v>42</v>
       </c>
       <c r="D487" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E487" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E487" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G487" s="1">
         <v>1</v>
@@ -43524,7 +43809,7 @@
     </row>
     <row r="488" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B488">
         <v>2</v>
@@ -43533,13 +43818,13 @@
         <v>42</v>
       </c>
       <c r="D488" t="s">
+        <v>489</v>
+      </c>
+      <c r="E488" t="s">
         <v>490</v>
       </c>
-      <c r="E488" t="s">
-        <v>491</v>
-      </c>
       <c r="F488" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G488">
         <v>0</v>
@@ -43610,7 +43895,7 @@
     </row>
     <row r="489" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B489">
         <v>2</v>
@@ -43619,10 +43904,10 @@
         <v>42</v>
       </c>
       <c r="D489" t="s">
+        <v>489</v>
+      </c>
+      <c r="E489" t="s">
         <v>490</v>
-      </c>
-      <c r="E489" t="s">
-        <v>491</v>
       </c>
       <c r="G489">
         <v>2</v>
@@ -43693,7 +43978,7 @@
     </row>
     <row r="490" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B490" s="1">
         <v>2</v>
@@ -43702,10 +43987,10 @@
         <v>42</v>
       </c>
       <c r="D490" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E490" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E490" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G490" s="1">
         <v>1</v>
@@ -43776,7 +44061,7 @@
     </row>
     <row r="491" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B491">
         <v>2</v>
@@ -43785,10 +44070,10 @@
         <v>42</v>
       </c>
       <c r="D491" t="s">
+        <v>489</v>
+      </c>
+      <c r="E491" t="s">
         <v>490</v>
-      </c>
-      <c r="E491" t="s">
-        <v>491</v>
       </c>
       <c r="G491">
         <v>0</v>
@@ -43859,7 +44144,7 @@
     </row>
     <row r="492" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B492" s="1">
         <v>3</v>
@@ -43868,10 +44153,10 @@
         <v>42</v>
       </c>
       <c r="D492" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E492" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E492" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G492" s="1">
         <v>1</v>
@@ -43942,7 +44227,7 @@
     </row>
     <row r="493" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B493">
         <v>3</v>
@@ -43951,10 +44236,10 @@
         <v>42</v>
       </c>
       <c r="D493" t="s">
+        <v>489</v>
+      </c>
+      <c r="E493" t="s">
         <v>490</v>
-      </c>
-      <c r="E493" t="s">
-        <v>491</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -44025,7 +44310,7 @@
     </row>
     <row r="494" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B494" s="1">
         <v>3</v>
@@ -44034,10 +44319,10 @@
         <v>42</v>
       </c>
       <c r="D494" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E494" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G494" s="1">
         <v>0</v>
@@ -44108,7 +44393,7 @@
     </row>
     <row r="495" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B495">
         <v>3</v>
@@ -44117,13 +44402,13 @@
         <v>42</v>
       </c>
       <c r="D495" t="s">
+        <v>489</v>
+      </c>
+      <c r="E495" t="s">
         <v>490</v>
       </c>
-      <c r="E495" t="s">
-        <v>491</v>
-      </c>
       <c r="F495" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G495">
         <v>0</v>
@@ -44183,18 +44468,18 @@
         <v>308</v>
       </c>
       <c r="Z495" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA495" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB495" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="496" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B496" s="1">
         <v>3</v>
@@ -44203,10 +44488,10 @@
         <v>42</v>
       </c>
       <c r="D496" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E496" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E496" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G496" s="1">
         <v>1</v>
@@ -44277,7 +44562,7 @@
     </row>
     <row r="497" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -44286,10 +44571,10 @@
         <v>58</v>
       </c>
       <c r="D497" t="s">
+        <v>489</v>
+      </c>
+      <c r="E497" t="s">
         <v>490</v>
-      </c>
-      <c r="E497" t="s">
-        <v>491</v>
       </c>
       <c r="G497" t="s">
         <v>10</v>
@@ -44360,7 +44645,7 @@
     </row>
     <row r="498" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B498" s="1">
         <v>1</v>
@@ -44369,10 +44654,10 @@
         <v>58</v>
       </c>
       <c r="D498" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E498" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E498" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G498" s="1" t="s">
         <v>10</v>
@@ -44443,7 +44728,7 @@
     </row>
     <row r="499" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -44452,10 +44737,10 @@
         <v>58</v>
       </c>
       <c r="D499" t="s">
+        <v>489</v>
+      </c>
+      <c r="E499" t="s">
         <v>490</v>
-      </c>
-      <c r="E499" t="s">
-        <v>491</v>
       </c>
       <c r="G499" t="s">
         <v>10</v>
@@ -44526,7 +44811,7 @@
     </row>
     <row r="500" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B500" s="1">
         <v>1</v>
@@ -44535,10 +44820,10 @@
         <v>58</v>
       </c>
       <c r="D500" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E500" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E500" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G500" s="1" t="s">
         <v>10</v>
@@ -44609,7 +44894,7 @@
     </row>
     <row r="501" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B501">
         <v>1</v>
@@ -44618,10 +44903,10 @@
         <v>58</v>
       </c>
       <c r="D501" t="s">
+        <v>489</v>
+      </c>
+      <c r="E501" t="s">
         <v>490</v>
-      </c>
-      <c r="E501" t="s">
-        <v>491</v>
       </c>
       <c r="G501" t="s">
         <v>10</v>
@@ -44692,7 +44977,7 @@
     </row>
     <row r="502" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B502" s="1">
         <v>2</v>
@@ -44701,10 +44986,10 @@
         <v>58</v>
       </c>
       <c r="D502" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E502" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E502" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G502" s="1" t="s">
         <v>10</v>
@@ -44775,7 +45060,7 @@
     </row>
     <row r="503" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -44784,10 +45069,10 @@
         <v>58</v>
       </c>
       <c r="D503" t="s">
+        <v>489</v>
+      </c>
+      <c r="E503" t="s">
         <v>490</v>
-      </c>
-      <c r="E503" t="s">
-        <v>491</v>
       </c>
       <c r="G503" t="s">
         <v>10</v>
@@ -44858,7 +45143,7 @@
     </row>
     <row r="504" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B504" s="1">
         <v>2</v>
@@ -44867,10 +45152,10 @@
         <v>58</v>
       </c>
       <c r="D504" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E504" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E504" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G504" s="1" t="s">
         <v>10</v>
@@ -44941,7 +45226,7 @@
     </row>
     <row r="505" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B505">
         <v>2</v>
@@ -44950,10 +45235,10 @@
         <v>58</v>
       </c>
       <c r="D505" t="s">
+        <v>489</v>
+      </c>
+      <c r="E505" t="s">
         <v>490</v>
-      </c>
-      <c r="E505" t="s">
-        <v>491</v>
       </c>
       <c r="G505" t="s">
         <v>10</v>
@@ -45024,7 +45309,7 @@
     </row>
     <row r="506" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B506" s="1">
         <v>2</v>
@@ -45033,10 +45318,10 @@
         <v>58</v>
       </c>
       <c r="D506" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E506" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E506" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G506" s="1" t="s">
         <v>10</v>
@@ -45107,7 +45392,7 @@
     </row>
     <row r="507" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B507">
         <v>3</v>
@@ -45116,10 +45401,10 @@
         <v>58</v>
       </c>
       <c r="D507" t="s">
+        <v>489</v>
+      </c>
+      <c r="E507" t="s">
         <v>490</v>
-      </c>
-      <c r="E507" t="s">
-        <v>491</v>
       </c>
       <c r="G507" t="s">
         <v>10</v>
@@ -45190,7 +45475,7 @@
     </row>
     <row r="508" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B508" s="1">
         <v>3</v>
@@ -45199,10 +45484,10 @@
         <v>58</v>
       </c>
       <c r="D508" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E508" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E508" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G508" s="1" t="s">
         <v>10</v>
@@ -45273,7 +45558,7 @@
     </row>
     <row r="509" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B509">
         <v>3</v>
@@ -45282,10 +45567,10 @@
         <v>58</v>
       </c>
       <c r="D509" t="s">
+        <v>489</v>
+      </c>
+      <c r="E509" t="s">
         <v>490</v>
-      </c>
-      <c r="E509" t="s">
-        <v>491</v>
       </c>
       <c r="G509" t="s">
         <v>10</v>
@@ -45356,7 +45641,7 @@
     </row>
     <row r="510" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B510" s="1">
         <v>3</v>
@@ -45365,10 +45650,10 @@
         <v>58</v>
       </c>
       <c r="D510" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E510" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E510" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G510" s="1" t="s">
         <v>10</v>
@@ -45439,7 +45724,7 @@
     </row>
     <row r="511" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B511">
         <v>3</v>
@@ -45448,10 +45733,10 @@
         <v>58</v>
       </c>
       <c r="D511" t="s">
+        <v>489</v>
+      </c>
+      <c r="E511" t="s">
         <v>490</v>
-      </c>
-      <c r="E511" t="s">
-        <v>491</v>
       </c>
       <c r="G511" t="s">
         <v>10</v>
@@ -45522,7 +45807,7 @@
     </row>
     <row r="512" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B512" s="1">
         <v>1</v>
@@ -45531,10 +45816,10 @@
         <v>74</v>
       </c>
       <c r="D512" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E512" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G512" s="1" t="s">
         <v>10</v>
@@ -45605,7 +45890,7 @@
     </row>
     <row r="513" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -45614,10 +45899,10 @@
         <v>74</v>
       </c>
       <c r="D513" t="s">
+        <v>489</v>
+      </c>
+      <c r="E513" t="s">
         <v>490</v>
-      </c>
-      <c r="E513" t="s">
-        <v>491</v>
       </c>
       <c r="G513" t="s">
         <v>10</v>
@@ -45688,7 +45973,7 @@
     </row>
     <row r="514" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B514" s="1">
         <v>1</v>
@@ -45697,10 +45982,10 @@
         <v>74</v>
       </c>
       <c r="D514" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E514" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E514" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G514" s="1" t="s">
         <v>10</v>
@@ -45771,7 +46056,7 @@
     </row>
     <row r="515" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -45780,10 +46065,10 @@
         <v>74</v>
       </c>
       <c r="D515" t="s">
+        <v>489</v>
+      </c>
+      <c r="E515" t="s">
         <v>490</v>
-      </c>
-      <c r="E515" t="s">
-        <v>491</v>
       </c>
       <c r="G515" t="s">
         <v>10</v>
@@ -45854,7 +46139,7 @@
     </row>
     <row r="516" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B516" s="1">
         <v>1</v>
@@ -45863,10 +46148,10 @@
         <v>74</v>
       </c>
       <c r="D516" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E516" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E516" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G516" s="1" t="s">
         <v>10</v>
@@ -45937,7 +46222,7 @@
     </row>
     <row r="517" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B517">
         <v>2</v>
@@ -45946,10 +46231,10 @@
         <v>74</v>
       </c>
       <c r="D517" t="s">
+        <v>489</v>
+      </c>
+      <c r="E517" t="s">
         <v>490</v>
-      </c>
-      <c r="E517" t="s">
-        <v>491</v>
       </c>
       <c r="F517" t="s">
         <v>349</v>
@@ -46012,18 +46297,18 @@
         <v>2</v>
       </c>
       <c r="Z517" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA517" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB517" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="518" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B518" s="1">
         <v>2</v>
@@ -46032,13 +46317,13 @@
         <v>74</v>
       </c>
       <c r="D518" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E518" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E518" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="F518" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G518" s="1" t="s">
         <v>10</v>
@@ -46109,7 +46394,7 @@
     </row>
     <row r="519" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -46118,10 +46403,10 @@
         <v>74</v>
       </c>
       <c r="D519" t="s">
+        <v>489</v>
+      </c>
+      <c r="E519" t="s">
         <v>490</v>
-      </c>
-      <c r="E519" t="s">
-        <v>491</v>
       </c>
       <c r="G519" t="s">
         <v>10</v>
@@ -46192,7 +46477,7 @@
     </row>
     <row r="520" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B520" s="1">
         <v>2</v>
@@ -46201,10 +46486,10 @@
         <v>74</v>
       </c>
       <c r="D520" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E520" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E520" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G520" s="1" t="s">
         <v>10</v>
@@ -46275,7 +46560,7 @@
     </row>
     <row r="521" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B521">
         <v>2</v>
@@ -46284,10 +46569,10 @@
         <v>74</v>
       </c>
       <c r="D521" t="s">
+        <v>489</v>
+      </c>
+      <c r="E521" t="s">
         <v>490</v>
-      </c>
-      <c r="E521" t="s">
-        <v>491</v>
       </c>
       <c r="G521" t="s">
         <v>10</v>
@@ -46358,7 +46643,7 @@
     </row>
     <row r="522" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B522" s="1">
         <v>3</v>
@@ -46367,10 +46652,10 @@
         <v>74</v>
       </c>
       <c r="D522" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E522" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E522" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G522" s="1" t="s">
         <v>10</v>
@@ -46441,7 +46726,7 @@
     </row>
     <row r="523" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B523">
         <v>3</v>
@@ -46450,10 +46735,10 @@
         <v>74</v>
       </c>
       <c r="D523" t="s">
+        <v>489</v>
+      </c>
+      <c r="E523" t="s">
         <v>490</v>
-      </c>
-      <c r="E523" t="s">
-        <v>491</v>
       </c>
       <c r="G523" t="s">
         <v>10</v>
@@ -46524,7 +46809,7 @@
     </row>
     <row r="524" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B524" s="1">
         <v>3</v>
@@ -46533,10 +46818,10 @@
         <v>74</v>
       </c>
       <c r="D524" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E524" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E524" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G524" s="1" t="s">
         <v>10</v>
@@ -46607,7 +46892,7 @@
     </row>
     <row r="525" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B525">
         <v>3</v>
@@ -46616,10 +46901,10 @@
         <v>74</v>
       </c>
       <c r="D525" t="s">
+        <v>489</v>
+      </c>
+      <c r="E525" t="s">
         <v>490</v>
-      </c>
-      <c r="E525" t="s">
-        <v>491</v>
       </c>
       <c r="G525" t="s">
         <v>10</v>
@@ -46690,7 +46975,7 @@
     </row>
     <row r="526" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B526" s="1">
         <v>3</v>
@@ -46699,10 +46984,10 @@
         <v>74</v>
       </c>
       <c r="D526" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E526" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E526" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G526" s="1" t="s">
         <v>10</v>
@@ -46773,7 +47058,7 @@
     </row>
     <row r="527" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -46782,10 +47067,10 @@
         <v>90</v>
       </c>
       <c r="D527" t="s">
+        <v>489</v>
+      </c>
+      <c r="E527" t="s">
         <v>490</v>
-      </c>
-      <c r="E527" t="s">
-        <v>491</v>
       </c>
       <c r="G527" t="s">
         <v>10</v>
@@ -46856,7 +47141,7 @@
     </row>
     <row r="528" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B528" s="1">
         <v>1</v>
@@ -46865,10 +47150,10 @@
         <v>90</v>
       </c>
       <c r="D528" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E528" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E528" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>349</v>
@@ -46942,7 +47227,7 @@
     </row>
     <row r="529" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -46951,10 +47236,10 @@
         <v>90</v>
       </c>
       <c r="D529" t="s">
+        <v>489</v>
+      </c>
+      <c r="E529" t="s">
         <v>490</v>
-      </c>
-      <c r="E529" t="s">
-        <v>491</v>
       </c>
       <c r="G529" t="s">
         <v>10</v>
@@ -47025,7 +47310,7 @@
     </row>
     <row r="530" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B530" s="1">
         <v>1</v>
@@ -47034,10 +47319,10 @@
         <v>90</v>
       </c>
       <c r="D530" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E530" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E530" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G530" s="1" t="s">
         <v>10</v>
@@ -47108,7 +47393,7 @@
     </row>
     <row r="531" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -47117,10 +47402,10 @@
         <v>90</v>
       </c>
       <c r="D531" t="s">
+        <v>489</v>
+      </c>
+      <c r="E531" t="s">
         <v>490</v>
-      </c>
-      <c r="E531" t="s">
-        <v>491</v>
       </c>
       <c r="G531" t="s">
         <v>10</v>
@@ -47191,7 +47476,7 @@
     </row>
     <row r="532" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B532" s="1">
         <v>2</v>
@@ -47200,10 +47485,10 @@
         <v>90</v>
       </c>
       <c r="D532" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E532" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E532" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="F532" s="1" t="s">
         <v>349</v>
@@ -47277,7 +47562,7 @@
     </row>
     <row r="533" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -47286,10 +47571,10 @@
         <v>90</v>
       </c>
       <c r="D533" t="s">
+        <v>489</v>
+      </c>
+      <c r="E533" t="s">
         <v>490</v>
-      </c>
-      <c r="E533" t="s">
-        <v>491</v>
       </c>
       <c r="G533" t="s">
         <v>10</v>
@@ -47360,7 +47645,7 @@
     </row>
     <row r="534" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B534" s="1">
         <v>2</v>
@@ -47369,10 +47654,10 @@
         <v>90</v>
       </c>
       <c r="D534" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E534" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E534" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G534" s="1" t="s">
         <v>10</v>
@@ -47443,7 +47728,7 @@
     </row>
     <row r="535" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B535">
         <v>2</v>
@@ -47452,10 +47737,10 @@
         <v>90</v>
       </c>
       <c r="D535" t="s">
+        <v>489</v>
+      </c>
+      <c r="E535" t="s">
         <v>490</v>
-      </c>
-      <c r="E535" t="s">
-        <v>491</v>
       </c>
       <c r="G535" t="s">
         <v>10</v>
@@ -47526,7 +47811,7 @@
     </row>
     <row r="536" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B536">
         <v>2</v>
@@ -47535,10 +47820,10 @@
         <v>90</v>
       </c>
       <c r="D536" t="s">
+        <v>489</v>
+      </c>
+      <c r="E536" t="s">
         <v>490</v>
-      </c>
-      <c r="E536" t="s">
-        <v>491</v>
       </c>
       <c r="G536" t="s">
         <v>10</v>
@@ -47609,7 +47894,7 @@
     </row>
     <row r="537" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B537" s="1">
         <v>3</v>
@@ -47618,10 +47903,10 @@
         <v>90</v>
       </c>
       <c r="D537" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E537" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E537" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G537" s="1" t="s">
         <v>10</v>
@@ -47692,7 +47977,7 @@
     </row>
     <row r="538" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B538">
         <v>3</v>
@@ -47701,10 +47986,10 @@
         <v>90</v>
       </c>
       <c r="D538" t="s">
+        <v>489</v>
+      </c>
+      <c r="E538" t="s">
         <v>490</v>
-      </c>
-      <c r="E538" t="s">
-        <v>491</v>
       </c>
       <c r="G538" t="s">
         <v>10</v>
@@ -47775,7 +48060,7 @@
     </row>
     <row r="539" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B539" s="1">
         <v>3</v>
@@ -47784,10 +48069,10 @@
         <v>90</v>
       </c>
       <c r="D539" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E539" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E539" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G539" s="1" t="s">
         <v>10</v>
@@ -47858,7 +48143,7 @@
     </row>
     <row r="540" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B540">
         <v>3</v>
@@ -47867,10 +48152,10 @@
         <v>90</v>
       </c>
       <c r="D540" t="s">
+        <v>489</v>
+      </c>
+      <c r="E540" t="s">
         <v>490</v>
-      </c>
-      <c r="E540" t="s">
-        <v>491</v>
       </c>
       <c r="G540" t="s">
         <v>10</v>
@@ -47941,7 +48226,7 @@
     </row>
     <row r="541" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B541" s="1">
         <v>3</v>
@@ -47950,10 +48235,10 @@
         <v>90</v>
       </c>
       <c r="D541" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E541" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E541" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="G541" s="1" t="s">
         <v>10</v>
@@ -48024,7 +48309,7 @@
     </row>
     <row r="542" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -48033,10 +48318,10 @@
         <v>7</v>
       </c>
       <c r="D542" t="s">
+        <v>583</v>
+      </c>
+      <c r="E542" t="s">
         <v>584</v>
-      </c>
-      <c r="E542" t="s">
-        <v>585</v>
       </c>
       <c r="G542">
         <v>1</v>
@@ -48107,7 +48392,7 @@
     </row>
     <row r="543" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B543" s="1">
         <v>1</v>
@@ -48116,10 +48401,10 @@
         <v>7</v>
       </c>
       <c r="D543" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E543" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E543" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G543" s="1">
         <v>1</v>
@@ -48190,7 +48475,7 @@
     </row>
     <row r="544" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -48199,10 +48484,10 @@
         <v>7</v>
       </c>
       <c r="D544" t="s">
+        <v>583</v>
+      </c>
+      <c r="E544" t="s">
         <v>584</v>
-      </c>
-      <c r="E544" t="s">
-        <v>585</v>
       </c>
       <c r="G544">
         <v>1</v>
@@ -48273,7 +48558,7 @@
     </row>
     <row r="545" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B545" s="1">
         <v>1</v>
@@ -48282,10 +48567,10 @@
         <v>7</v>
       </c>
       <c r="D545" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E545" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E545" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G545" s="1">
         <v>1</v>
@@ -48356,7 +48641,7 @@
     </row>
     <row r="546" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -48365,10 +48650,10 @@
         <v>7</v>
       </c>
       <c r="D546" t="s">
+        <v>583</v>
+      </c>
+      <c r="E546" t="s">
         <v>584</v>
-      </c>
-      <c r="E546" t="s">
-        <v>585</v>
       </c>
       <c r="G546">
         <v>1</v>
@@ -48439,7 +48724,7 @@
     </row>
     <row r="547" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B547" s="1">
         <v>2</v>
@@ -48448,10 +48733,10 @@
         <v>7</v>
       </c>
       <c r="D547" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E547" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E547" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G547" s="1">
         <v>1</v>
@@ -48522,7 +48807,7 @@
     </row>
     <row r="548" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B548">
         <v>2</v>
@@ -48531,10 +48816,10 @@
         <v>7</v>
       </c>
       <c r="D548" t="s">
+        <v>583</v>
+      </c>
+      <c r="E548" t="s">
         <v>584</v>
-      </c>
-      <c r="E548" t="s">
-        <v>585</v>
       </c>
       <c r="G548">
         <v>1</v>
@@ -48605,7 +48890,7 @@
     </row>
     <row r="549" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B549" s="1">
         <v>2</v>
@@ -48614,10 +48899,10 @@
         <v>7</v>
       </c>
       <c r="D549" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E549" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E549" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G549" s="1">
         <v>1</v>
@@ -48688,7 +48973,7 @@
     </row>
     <row r="550" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B550">
         <v>2</v>
@@ -48697,10 +48982,10 @@
         <v>7</v>
       </c>
       <c r="D550" t="s">
+        <v>583</v>
+      </c>
+      <c r="E550" t="s">
         <v>584</v>
-      </c>
-      <c r="E550" t="s">
-        <v>585</v>
       </c>
       <c r="G550">
         <v>1</v>
@@ -48771,7 +49056,7 @@
     </row>
     <row r="551" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B551" s="1">
         <v>2</v>
@@ -48780,10 +49065,10 @@
         <v>7</v>
       </c>
       <c r="D551" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E551" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E551" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G551" s="1">
         <v>1</v>
@@ -48854,7 +49139,7 @@
     </row>
     <row r="552" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B552">
         <v>3</v>
@@ -48863,11 +49148,11 @@
         <v>7</v>
       </c>
       <c r="D552" t="s">
+        <v>583</v>
+      </c>
+      <c r="E552" t="s">
         <v>584</v>
       </c>
-      <c r="E552" t="s">
-        <v>585</v>
-      </c>
       <c r="G552">
         <v>1</v>
       </c>
@@ -48926,7 +49211,7 @@
         <v>308</v>
       </c>
       <c r="Z552" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA552" t="s">
         <v>308</v>
@@ -48937,7 +49222,7 @@
     </row>
     <row r="553" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B553" s="1">
         <v>3</v>
@@ -48946,10 +49231,10 @@
         <v>7</v>
       </c>
       <c r="D553" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E553" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E553" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G553" s="1">
         <v>1</v>
@@ -49020,7 +49305,7 @@
     </row>
     <row r="554" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B554">
         <v>3</v>
@@ -49029,10 +49314,10 @@
         <v>7</v>
       </c>
       <c r="D554" t="s">
+        <v>583</v>
+      </c>
+      <c r="E554" t="s">
         <v>584</v>
-      </c>
-      <c r="E554" t="s">
-        <v>585</v>
       </c>
       <c r="G554">
         <v>1</v>
@@ -49103,7 +49388,7 @@
     </row>
     <row r="555" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B555" s="1">
         <v>3</v>
@@ -49112,10 +49397,10 @@
         <v>7</v>
       </c>
       <c r="D555" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E555" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E555" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G555" s="1">
         <v>1</v>
@@ -49186,7 +49471,7 @@
     </row>
     <row r="556" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B556">
         <v>3</v>
@@ -49195,10 +49480,10 @@
         <v>7</v>
       </c>
       <c r="D556" t="s">
+        <v>583</v>
+      </c>
+      <c r="E556" t="s">
         <v>584</v>
-      </c>
-      <c r="E556" t="s">
-        <v>585</v>
       </c>
       <c r="G556">
         <v>1</v>
@@ -49269,7 +49554,7 @@
     </row>
     <row r="557" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B557" s="1">
         <v>1</v>
@@ -49278,11 +49563,11 @@
         <v>26</v>
       </c>
       <c r="D557" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E557" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E557" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="G557" s="1">
         <v>1</v>
       </c>
@@ -49341,7 +49626,7 @@
         <v>1</v>
       </c>
       <c r="Z557" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA557" s="1" t="s">
         <v>308</v>
@@ -49352,7 +49637,7 @@
     </row>
     <row r="558" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -49361,10 +49646,10 @@
         <v>26</v>
       </c>
       <c r="D558" t="s">
+        <v>583</v>
+      </c>
+      <c r="E558" t="s">
         <v>584</v>
-      </c>
-      <c r="E558" t="s">
-        <v>585</v>
       </c>
       <c r="G558">
         <v>1</v>
@@ -49435,7 +49720,7 @@
     </row>
     <row r="559" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -49444,10 +49729,10 @@
         <v>26</v>
       </c>
       <c r="D559" t="s">
+        <v>583</v>
+      </c>
+      <c r="E559" t="s">
         <v>584</v>
-      </c>
-      <c r="E559" t="s">
-        <v>585</v>
       </c>
       <c r="G559">
         <v>1</v>
@@ -49518,7 +49803,7 @@
     </row>
     <row r="560" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B560" s="1">
         <v>1</v>
@@ -49527,10 +49812,10 @@
         <v>26</v>
       </c>
       <c r="D560" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E560" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E560" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G560" s="1">
         <v>1</v>
@@ -49601,7 +49886,7 @@
     </row>
     <row r="561" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -49610,10 +49895,10 @@
         <v>26</v>
       </c>
       <c r="D561" t="s">
+        <v>583</v>
+      </c>
+      <c r="E561" t="s">
         <v>584</v>
-      </c>
-      <c r="E561" t="s">
-        <v>585</v>
       </c>
       <c r="G561">
         <v>1</v>
@@ -49684,7 +49969,7 @@
     </row>
     <row r="562" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B562" s="1">
         <v>2</v>
@@ -49693,10 +49978,10 @@
         <v>26</v>
       </c>
       <c r="D562" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E562" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E562" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G562" s="1">
         <v>1</v>
@@ -49767,7 +50052,7 @@
     </row>
     <row r="563" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B563">
         <v>2</v>
@@ -49776,10 +50061,10 @@
         <v>26</v>
       </c>
       <c r="D563" t="s">
+        <v>583</v>
+      </c>
+      <c r="E563" t="s">
         <v>584</v>
-      </c>
-      <c r="E563" t="s">
-        <v>585</v>
       </c>
       <c r="G563">
         <v>1</v>
@@ -49850,7 +50135,7 @@
     </row>
     <row r="564" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B564" s="1">
         <v>2</v>
@@ -49859,10 +50144,10 @@
         <v>26</v>
       </c>
       <c r="D564" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E564" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E564" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G564" s="1">
         <v>1</v>
@@ -49933,7 +50218,7 @@
     </row>
     <row r="565" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B565">
         <v>2</v>
@@ -49942,10 +50227,10 @@
         <v>26</v>
       </c>
       <c r="D565" t="s">
+        <v>583</v>
+      </c>
+      <c r="E565" t="s">
         <v>584</v>
-      </c>
-      <c r="E565" t="s">
-        <v>585</v>
       </c>
       <c r="G565">
         <v>1</v>
@@ -50016,7 +50301,7 @@
     </row>
     <row r="566" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B566" s="1">
         <v>2</v>
@@ -50025,11 +50310,11 @@
         <v>26</v>
       </c>
       <c r="D566" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E566" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E566" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="G566" s="1">
         <v>1</v>
       </c>
@@ -50088,7 +50373,7 @@
         <v>1</v>
       </c>
       <c r="Z566" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA566" s="1" t="s">
         <v>308</v>
@@ -50099,7 +50384,7 @@
     </row>
     <row r="567" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B567">
         <v>3</v>
@@ -50108,10 +50393,10 @@
         <v>26</v>
       </c>
       <c r="D567" t="s">
+        <v>583</v>
+      </c>
+      <c r="E567" t="s">
         <v>584</v>
-      </c>
-      <c r="E567" t="s">
-        <v>585</v>
       </c>
       <c r="G567">
         <v>1</v>
@@ -50182,7 +50467,7 @@
     </row>
     <row r="568" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B568" s="1">
         <v>3</v>
@@ -50191,10 +50476,10 @@
         <v>26</v>
       </c>
       <c r="D568" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E568" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E568" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G568" s="1">
         <v>1</v>
@@ -50265,7 +50550,7 @@
     </row>
     <row r="569" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B569">
         <v>3</v>
@@ -50274,10 +50559,10 @@
         <v>26</v>
       </c>
       <c r="D569" t="s">
+        <v>583</v>
+      </c>
+      <c r="E569" t="s">
         <v>584</v>
-      </c>
-      <c r="E569" t="s">
-        <v>585</v>
       </c>
       <c r="G569">
         <v>1</v>
@@ -50348,7 +50633,7 @@
     </row>
     <row r="570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B570" s="1">
         <v>3</v>
@@ -50357,10 +50642,10 @@
         <v>26</v>
       </c>
       <c r="D570" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E570" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E570" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G570" s="1">
         <v>1</v>
@@ -50431,7 +50716,7 @@
     </row>
     <row r="571" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B571">
         <v>3</v>
@@ -50440,13 +50725,13 @@
         <v>26</v>
       </c>
       <c r="D571" t="s">
+        <v>583</v>
+      </c>
+      <c r="E571" t="s">
         <v>584</v>
       </c>
-      <c r="E571" t="s">
-        <v>585</v>
-      </c>
       <c r="F571" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G571">
         <v>1</v>
@@ -50517,7 +50802,7 @@
     </row>
     <row r="572" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B572" s="1">
         <v>1</v>
@@ -50526,10 +50811,10 @@
         <v>42</v>
       </c>
       <c r="D572" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E572" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E572" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G572" s="1">
         <v>1</v>
@@ -50600,7 +50885,7 @@
     </row>
     <row r="573" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -50609,10 +50894,10 @@
         <v>42</v>
       </c>
       <c r="D573" t="s">
+        <v>583</v>
+      </c>
+      <c r="E573" t="s">
         <v>584</v>
-      </c>
-      <c r="E573" t="s">
-        <v>585</v>
       </c>
       <c r="G573">
         <v>1</v>
@@ -50683,7 +50968,7 @@
     </row>
     <row r="574" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B574" s="1">
         <v>1</v>
@@ -50692,10 +50977,10 @@
         <v>42</v>
       </c>
       <c r="D574" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E574" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E574" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G574" s="1">
         <v>1</v>
@@ -50755,7 +51040,7 @@
         <v>308</v>
       </c>
       <c r="Z574" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA574" s="1" t="s">
         <v>308</v>
@@ -50766,7 +51051,7 @@
     </row>
     <row r="575" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -50775,11 +51060,11 @@
         <v>42</v>
       </c>
       <c r="D575" t="s">
+        <v>583</v>
+      </c>
+      <c r="E575" t="s">
         <v>584</v>
       </c>
-      <c r="E575" t="s">
-        <v>585</v>
-      </c>
       <c r="G575">
         <v>1</v>
       </c>
@@ -50838,7 +51123,7 @@
         <v>1</v>
       </c>
       <c r="Z575" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA575" t="s">
         <v>308</v>
@@ -50849,7 +51134,7 @@
     </row>
     <row r="576" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B576" s="1">
         <v>1</v>
@@ -50858,11 +51143,11 @@
         <v>42</v>
       </c>
       <c r="D576" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E576" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E576" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="G576" s="1">
         <v>1</v>
       </c>
@@ -50921,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="Z576" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA576" s="1" t="s">
         <v>308</v>
@@ -50932,7 +51217,7 @@
     </row>
     <row r="577" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B577">
         <v>2</v>
@@ -50941,10 +51226,10 @@
         <v>42</v>
       </c>
       <c r="D577" t="s">
+        <v>583</v>
+      </c>
+      <c r="E577" t="s">
         <v>584</v>
-      </c>
-      <c r="E577" t="s">
-        <v>585</v>
       </c>
       <c r="G577">
         <v>1</v>
@@ -51015,7 +51300,7 @@
     </row>
     <row r="578" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B578" s="1">
         <v>2</v>
@@ -51024,10 +51309,10 @@
         <v>42</v>
       </c>
       <c r="D578" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E578" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E578" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G578" s="1">
         <v>1</v>
@@ -51098,7 +51383,7 @@
     </row>
     <row r="579" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B579">
         <v>2</v>
@@ -51107,10 +51392,10 @@
         <v>42</v>
       </c>
       <c r="D579" t="s">
+        <v>583</v>
+      </c>
+      <c r="E579" t="s">
         <v>584</v>
-      </c>
-      <c r="E579" t="s">
-        <v>585</v>
       </c>
       <c r="G579">
         <v>1</v>
@@ -51181,7 +51466,7 @@
     </row>
     <row r="580" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B580" s="1">
         <v>2</v>
@@ -51190,10 +51475,10 @@
         <v>42</v>
       </c>
       <c r="D580" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E580" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E580" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G580" s="1">
         <v>1</v>
@@ -51264,7 +51549,7 @@
     </row>
     <row r="581" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B581">
         <v>2</v>
@@ -51273,10 +51558,10 @@
         <v>42</v>
       </c>
       <c r="D581" t="s">
+        <v>583</v>
+      </c>
+      <c r="E581" t="s">
         <v>584</v>
-      </c>
-      <c r="E581" t="s">
-        <v>585</v>
       </c>
       <c r="G581">
         <v>1</v>
@@ -51347,7 +51632,7 @@
     </row>
     <row r="582" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B582" s="1">
         <v>3</v>
@@ -51356,10 +51641,10 @@
         <v>42</v>
       </c>
       <c r="D582" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E582" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E582" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G582" s="1">
         <v>1</v>
@@ -51430,7 +51715,7 @@
     </row>
     <row r="583" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -51439,10 +51724,10 @@
         <v>42</v>
       </c>
       <c r="D583" t="s">
+        <v>583</v>
+      </c>
+      <c r="E583" t="s">
         <v>584</v>
-      </c>
-      <c r="E583" t="s">
-        <v>585</v>
       </c>
       <c r="G583">
         <v>1</v>
@@ -51502,7 +51787,7 @@
         <v>1</v>
       </c>
       <c r="Z583" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA583" s="1">
         <v>1</v>
@@ -51513,7 +51798,7 @@
     </row>
     <row r="584" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B584" s="1">
         <v>3</v>
@@ -51522,10 +51807,10 @@
         <v>42</v>
       </c>
       <c r="D584" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E584" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E584" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G584" s="1">
         <v>1</v>
@@ -51596,7 +51881,7 @@
     </row>
     <row r="585" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B585">
         <v>3</v>
@@ -51605,10 +51890,10 @@
         <v>42</v>
       </c>
       <c r="D585" t="s">
+        <v>583</v>
+      </c>
+      <c r="E585" t="s">
         <v>584</v>
-      </c>
-      <c r="E585" t="s">
-        <v>585</v>
       </c>
       <c r="G585">
         <v>1</v>
@@ -51679,7 +51964,7 @@
     </row>
     <row r="586" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B586" s="1">
         <v>3</v>
@@ -51688,10 +51973,10 @@
         <v>42</v>
       </c>
       <c r="D586" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E586" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E586" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G586" s="1">
         <v>1</v>
@@ -51762,7 +52047,7 @@
     </row>
     <row r="587" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -51771,10 +52056,10 @@
         <v>58</v>
       </c>
       <c r="D587" t="s">
+        <v>583</v>
+      </c>
+      <c r="E587" t="s">
         <v>584</v>
-      </c>
-      <c r="E587" t="s">
-        <v>585</v>
       </c>
       <c r="G587" t="s">
         <v>10</v>
@@ -51845,7 +52130,7 @@
     </row>
     <row r="588" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B588" s="1">
         <v>1</v>
@@ -51854,10 +52139,10 @@
         <v>58</v>
       </c>
       <c r="D588" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E588" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E588" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G588" s="1" t="s">
         <v>10</v>
@@ -51917,7 +52202,7 @@
         <v>308</v>
       </c>
       <c r="Z588" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA588" s="1" t="s">
         <v>308</v>
@@ -51928,7 +52213,7 @@
     </row>
     <row r="589" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -51937,10 +52222,10 @@
         <v>58</v>
       </c>
       <c r="D589" t="s">
+        <v>583</v>
+      </c>
+      <c r="E589" t="s">
         <v>584</v>
-      </c>
-      <c r="E589" t="s">
-        <v>585</v>
       </c>
       <c r="G589" t="s">
         <v>10</v>
@@ -52000,7 +52285,7 @@
         <v>308</v>
       </c>
       <c r="Z589" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA589" t="s">
         <v>308</v>
@@ -52011,7 +52296,7 @@
     </row>
     <row r="590" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B590" s="1">
         <v>1</v>
@@ -52020,10 +52305,10 @@
         <v>58</v>
       </c>
       <c r="D590" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E590" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E590" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G590" s="1" t="s">
         <v>10</v>
@@ -52094,7 +52379,7 @@
     </row>
     <row r="591" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B591">
         <v>1</v>
@@ -52103,10 +52388,10 @@
         <v>58</v>
       </c>
       <c r="D591" t="s">
+        <v>583</v>
+      </c>
+      <c r="E591" t="s">
         <v>584</v>
-      </c>
-      <c r="E591" t="s">
-        <v>585</v>
       </c>
       <c r="G591" t="s">
         <v>10</v>
@@ -52177,7 +52462,7 @@
     </row>
     <row r="592" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B592" s="1">
         <v>2</v>
@@ -52186,10 +52471,10 @@
         <v>58</v>
       </c>
       <c r="D592" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E592" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E592" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G592" s="1" t="s">
         <v>10</v>
@@ -52260,7 +52545,7 @@
     </row>
     <row r="593" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B593">
         <v>2</v>
@@ -52269,10 +52554,10 @@
         <v>58</v>
       </c>
       <c r="D593" t="s">
+        <v>583</v>
+      </c>
+      <c r="E593" t="s">
         <v>584</v>
-      </c>
-      <c r="E593" t="s">
-        <v>585</v>
       </c>
       <c r="G593" t="s">
         <v>10</v>
@@ -52343,7 +52628,7 @@
     </row>
     <row r="594" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B594" s="1">
         <v>2</v>
@@ -52352,10 +52637,10 @@
         <v>58</v>
       </c>
       <c r="D594" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E594" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E594" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G594" s="1" t="s">
         <v>10</v>
@@ -52426,7 +52711,7 @@
     </row>
     <row r="595" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B595">
         <v>2</v>
@@ -52435,10 +52720,10 @@
         <v>58</v>
       </c>
       <c r="D595" t="s">
+        <v>583</v>
+      </c>
+      <c r="E595" t="s">
         <v>584</v>
-      </c>
-      <c r="E595" t="s">
-        <v>585</v>
       </c>
       <c r="G595" t="s">
         <v>10</v>
@@ -52509,7 +52794,7 @@
     </row>
     <row r="596" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B596" s="1">
         <v>2</v>
@@ -52518,10 +52803,10 @@
         <v>58</v>
       </c>
       <c r="D596" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E596" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E596" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G596" s="1" t="s">
         <v>10</v>
@@ -52592,7 +52877,7 @@
     </row>
     <row r="597" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B597">
         <v>3</v>
@@ -52601,10 +52886,10 @@
         <v>58</v>
       </c>
       <c r="D597" t="s">
+        <v>583</v>
+      </c>
+      <c r="E597" t="s">
         <v>584</v>
-      </c>
-      <c r="E597" t="s">
-        <v>585</v>
       </c>
       <c r="G597" t="s">
         <v>10</v>
@@ -52675,7 +52960,7 @@
     </row>
     <row r="598" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B598" s="1">
         <v>3</v>
@@ -52684,10 +52969,10 @@
         <v>58</v>
       </c>
       <c r="D598" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E598" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E598" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G598" s="1" t="s">
         <v>10</v>
@@ -52758,7 +53043,7 @@
     </row>
     <row r="599" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B599">
         <v>3</v>
@@ -52767,10 +53052,10 @@
         <v>58</v>
       </c>
       <c r="D599" t="s">
+        <v>583</v>
+      </c>
+      <c r="E599" t="s">
         <v>584</v>
-      </c>
-      <c r="E599" t="s">
-        <v>585</v>
       </c>
       <c r="G599" t="s">
         <v>10</v>
@@ -52841,7 +53126,7 @@
     </row>
     <row r="600" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B600" s="1">
         <v>3</v>
@@ -52850,10 +53135,10 @@
         <v>58</v>
       </c>
       <c r="D600" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E600" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E600" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G600" s="1" t="s">
         <v>10</v>
@@ -52924,7 +53209,7 @@
     </row>
     <row r="601" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B601">
         <v>3</v>
@@ -52933,10 +53218,10 @@
         <v>58</v>
       </c>
       <c r="D601" t="s">
+        <v>583</v>
+      </c>
+      <c r="E601" t="s">
         <v>584</v>
-      </c>
-      <c r="E601" t="s">
-        <v>585</v>
       </c>
       <c r="G601" t="s">
         <v>10</v>
@@ -52996,7 +53281,7 @@
         <v>0</v>
       </c>
       <c r="Z601" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA601" t="s">
         <v>308</v>
@@ -53007,7 +53292,7 @@
     </row>
     <row r="602" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B602" s="1">
         <v>1</v>
@@ -53016,10 +53301,10 @@
         <v>74</v>
       </c>
       <c r="D602" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E602" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E602" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G602" s="1" t="s">
         <v>10</v>
@@ -53090,7 +53375,7 @@
     </row>
     <row r="603" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -53099,10 +53384,10 @@
         <v>74</v>
       </c>
       <c r="D603" t="s">
+        <v>583</v>
+      </c>
+      <c r="E603" t="s">
         <v>584</v>
-      </c>
-      <c r="E603" t="s">
-        <v>585</v>
       </c>
       <c r="G603" t="s">
         <v>10</v>
@@ -53162,10 +53447,10 @@
         <v>308</v>
       </c>
       <c r="Z603" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA603" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB603" t="s">
         <v>308</v>
@@ -53173,7 +53458,7 @@
     </row>
     <row r="604" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B604" s="1">
         <v>1</v>
@@ -53182,10 +53467,10 @@
         <v>74</v>
       </c>
       <c r="D604" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E604" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E604" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G604" s="1" t="s">
         <v>10</v>
@@ -53245,10 +53530,10 @@
         <v>308</v>
       </c>
       <c r="Z604" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA604" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB604" s="1" t="s">
         <v>308</v>
@@ -53256,7 +53541,7 @@
     </row>
     <row r="605" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -53265,10 +53550,10 @@
         <v>74</v>
       </c>
       <c r="D605" t="s">
+        <v>583</v>
+      </c>
+      <c r="E605" t="s">
         <v>584</v>
-      </c>
-      <c r="E605" t="s">
-        <v>585</v>
       </c>
       <c r="G605" t="s">
         <v>10</v>
@@ -53328,10 +53613,10 @@
         <v>308</v>
       </c>
       <c r="Z605" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA605" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB605" t="s">
         <v>308</v>
@@ -53339,7 +53624,7 @@
     </row>
     <row r="606" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -53348,10 +53633,10 @@
         <v>74</v>
       </c>
       <c r="D606" t="s">
+        <v>583</v>
+      </c>
+      <c r="E606" t="s">
         <v>584</v>
-      </c>
-      <c r="E606" t="s">
-        <v>585</v>
       </c>
       <c r="G606" t="s">
         <v>10</v>
@@ -53422,7 +53707,7 @@
     </row>
     <row r="607" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B607" s="1">
         <v>2</v>
@@ -53431,10 +53716,10 @@
         <v>74</v>
       </c>
       <c r="D607" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E607" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E607" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G607" s="1" t="s">
         <v>10</v>
@@ -53505,7 +53790,7 @@
     </row>
     <row r="608" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B608">
         <v>2</v>
@@ -53514,10 +53799,10 @@
         <v>74</v>
       </c>
       <c r="D608" t="s">
+        <v>583</v>
+      </c>
+      <c r="E608" t="s">
         <v>584</v>
-      </c>
-      <c r="E608" t="s">
-        <v>585</v>
       </c>
       <c r="G608" t="s">
         <v>10</v>
@@ -53588,7 +53873,7 @@
     </row>
     <row r="609" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B609" s="1">
         <v>2</v>
@@ -53597,13 +53882,13 @@
         <v>74</v>
       </c>
       <c r="D609" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E609" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E609" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="F609" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G609" s="1" t="s">
         <v>10</v>
@@ -53674,7 +53959,7 @@
     </row>
     <row r="610" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -53683,10 +53968,10 @@
         <v>74</v>
       </c>
       <c r="D610" t="s">
+        <v>583</v>
+      </c>
+      <c r="E610" t="s">
         <v>584</v>
-      </c>
-      <c r="E610" t="s">
-        <v>585</v>
       </c>
       <c r="G610" t="s">
         <v>10</v>
@@ -53757,7 +54042,7 @@
     </row>
     <row r="611" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B611" s="1">
         <v>2</v>
@@ -53766,10 +54051,10 @@
         <v>74</v>
       </c>
       <c r="D611" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E611" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E611" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G611" s="1" t="s">
         <v>10</v>
@@ -53840,7 +54125,7 @@
     </row>
     <row r="612" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B612">
         <v>3</v>
@@ -53849,10 +54134,10 @@
         <v>74</v>
       </c>
       <c r="D612" t="s">
+        <v>583</v>
+      </c>
+      <c r="E612" t="s">
         <v>584</v>
-      </c>
-      <c r="E612" t="s">
-        <v>585</v>
       </c>
       <c r="G612" t="s">
         <v>10</v>
@@ -53912,7 +54197,7 @@
         <v>308</v>
       </c>
       <c r="Z612" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA612" t="s">
         <v>308</v>
@@ -53923,7 +54208,7 @@
     </row>
     <row r="613" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B613" s="1">
         <v>3</v>
@@ -53932,10 +54217,10 @@
         <v>74</v>
       </c>
       <c r="D613" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E613" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E613" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G613" s="1" t="s">
         <v>10</v>
@@ -54006,7 +54291,7 @@
     </row>
     <row r="614" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B614">
         <v>3</v>
@@ -54015,10 +54300,10 @@
         <v>74</v>
       </c>
       <c r="D614" t="s">
+        <v>583</v>
+      </c>
+      <c r="E614" t="s">
         <v>584</v>
-      </c>
-      <c r="E614" t="s">
-        <v>585</v>
       </c>
       <c r="G614" t="s">
         <v>10</v>
@@ -54089,7 +54374,7 @@
     </row>
     <row r="615" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B615" s="1">
         <v>3</v>
@@ -54098,10 +54383,10 @@
         <v>74</v>
       </c>
       <c r="D615" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E615" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E615" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G615" s="1" t="s">
         <v>10</v>
@@ -54172,7 +54457,7 @@
     </row>
     <row r="616" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B616">
         <v>3</v>
@@ -54181,10 +54466,10 @@
         <v>74</v>
       </c>
       <c r="D616" t="s">
+        <v>583</v>
+      </c>
+      <c r="E616" t="s">
         <v>584</v>
-      </c>
-      <c r="E616" t="s">
-        <v>585</v>
       </c>
       <c r="G616" t="s">
         <v>10</v>
@@ -54255,7 +54540,7 @@
     </row>
     <row r="617" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B617" s="1">
         <v>1</v>
@@ -54264,10 +54549,10 @@
         <v>90</v>
       </c>
       <c r="D617" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E617" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E617" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G617" s="1" t="s">
         <v>10</v>
@@ -54338,7 +54623,7 @@
     </row>
     <row r="618" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -54347,10 +54632,10 @@
         <v>90</v>
       </c>
       <c r="D618" t="s">
+        <v>583</v>
+      </c>
+      <c r="E618" t="s">
         <v>584</v>
-      </c>
-      <c r="E618" t="s">
-        <v>585</v>
       </c>
       <c r="G618" t="s">
         <v>10</v>
@@ -54421,7 +54706,7 @@
     </row>
     <row r="619" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B619" s="1">
         <v>1</v>
@@ -54430,10 +54715,10 @@
         <v>90</v>
       </c>
       <c r="D619" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E619" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E619" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G619" s="1" t="s">
         <v>10</v>
@@ -54504,7 +54789,7 @@
     </row>
     <row r="620" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B620">
         <v>1</v>
@@ -54513,73 +54798,73 @@
         <v>90</v>
       </c>
       <c r="D620" t="s">
+        <v>583</v>
+      </c>
+      <c r="E620" t="s">
         <v>584</v>
       </c>
-      <c r="E620" t="s">
-        <v>585</v>
-      </c>
       <c r="F620" t="s">
+        <v>677</v>
+      </c>
+      <c r="G620" t="s">
+        <v>10</v>
+      </c>
+      <c r="H620">
+        <v>1</v>
+      </c>
+      <c r="I620">
+        <v>1</v>
+      </c>
+      <c r="J620">
+        <v>1</v>
+      </c>
+      <c r="K620">
+        <v>1</v>
+      </c>
+      <c r="L620">
+        <v>1</v>
+      </c>
+      <c r="M620">
+        <v>1</v>
+      </c>
+      <c r="N620" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O620" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="P620" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q620" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R620" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="S620">
+        <v>1</v>
+      </c>
+      <c r="T620">
+        <v>1</v>
+      </c>
+      <c r="U620">
+        <v>1</v>
+      </c>
+      <c r="V620">
+        <v>1</v>
+      </c>
+      <c r="W620">
+        <v>1</v>
+      </c>
+      <c r="X620">
+        <v>1</v>
+      </c>
+      <c r="Y620" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z620" t="s">
         <v>678</v>
-      </c>
-      <c r="G620" t="s">
-        <v>10</v>
-      </c>
-      <c r="H620">
-        <v>1</v>
-      </c>
-      <c r="I620">
-        <v>1</v>
-      </c>
-      <c r="J620">
-        <v>1</v>
-      </c>
-      <c r="K620">
-        <v>1</v>
-      </c>
-      <c r="L620">
-        <v>1</v>
-      </c>
-      <c r="M620">
-        <v>1</v>
-      </c>
-      <c r="N620" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="O620" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="P620" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q620" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="R620" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="S620">
-        <v>1</v>
-      </c>
-      <c r="T620">
-        <v>1</v>
-      </c>
-      <c r="U620">
-        <v>1</v>
-      </c>
-      <c r="V620">
-        <v>1</v>
-      </c>
-      <c r="W620">
-        <v>1</v>
-      </c>
-      <c r="X620">
-        <v>1</v>
-      </c>
-      <c r="Y620" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z620" t="s">
-        <v>679</v>
       </c>
       <c r="AA620" t="s">
         <v>308</v>
@@ -54590,7 +54875,7 @@
     </row>
     <row r="621" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B621" s="1">
         <v>1</v>
@@ -54599,10 +54884,10 @@
         <v>90</v>
       </c>
       <c r="D621" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E621" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E621" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G621" s="1" t="s">
         <v>10</v>
@@ -54673,7 +54958,7 @@
     </row>
     <row r="622" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B622">
         <v>2</v>
@@ -54682,10 +54967,10 @@
         <v>90</v>
       </c>
       <c r="D622" t="s">
+        <v>583</v>
+      </c>
+      <c r="E622" t="s">
         <v>584</v>
-      </c>
-      <c r="E622" t="s">
-        <v>585</v>
       </c>
       <c r="G622" t="s">
         <v>10</v>
@@ -54756,7 +55041,7 @@
     </row>
     <row r="623" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B623" s="1">
         <v>2</v>
@@ -54765,10 +55050,10 @@
         <v>90</v>
       </c>
       <c r="D623" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E623" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E623" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G623" s="1" t="s">
         <v>10</v>
@@ -54839,7 +55124,7 @@
     </row>
     <row r="624" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B624">
         <v>2</v>
@@ -54848,10 +55133,10 @@
         <v>90</v>
       </c>
       <c r="D624" t="s">
+        <v>583</v>
+      </c>
+      <c r="E624" t="s">
         <v>584</v>
-      </c>
-      <c r="E624" t="s">
-        <v>585</v>
       </c>
       <c r="G624" t="s">
         <v>10</v>
@@ -54922,7 +55207,7 @@
     </row>
     <row r="625" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B625" s="1">
         <v>2</v>
@@ -54931,10 +55216,10 @@
         <v>90</v>
       </c>
       <c r="D625" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E625" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E625" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G625" s="1" t="s">
         <v>10</v>
@@ -55005,7 +55290,7 @@
     </row>
     <row r="626" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B626">
         <v>2</v>
@@ -55014,10 +55299,10 @@
         <v>90</v>
       </c>
       <c r="D626" t="s">
+        <v>583</v>
+      </c>
+      <c r="E626" t="s">
         <v>584</v>
-      </c>
-      <c r="E626" t="s">
-        <v>585</v>
       </c>
       <c r="G626" t="s">
         <v>10</v>
@@ -55088,7 +55373,7 @@
     </row>
     <row r="627" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B627" s="1">
         <v>3</v>
@@ -55097,10 +55382,10 @@
         <v>90</v>
       </c>
       <c r="D627" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E627" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E627" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G627" s="1" t="s">
         <v>10</v>
@@ -55171,7 +55456,7 @@
     </row>
     <row r="628" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B628">
         <v>3</v>
@@ -55180,10 +55465,10 @@
         <v>90</v>
       </c>
       <c r="D628" t="s">
+        <v>583</v>
+      </c>
+      <c r="E628" t="s">
         <v>584</v>
-      </c>
-      <c r="E628" t="s">
-        <v>585</v>
       </c>
       <c r="G628" t="s">
         <v>10</v>
@@ -55254,7 +55539,7 @@
     </row>
     <row r="629" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B629" s="1">
         <v>3</v>
@@ -55263,10 +55548,10 @@
         <v>90</v>
       </c>
       <c r="D629" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E629" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E629" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G629" s="1" t="s">
         <v>10</v>
@@ -55337,7 +55622,7 @@
     </row>
     <row r="630" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B630">
         <v>3</v>
@@ -55346,10 +55631,10 @@
         <v>90</v>
       </c>
       <c r="D630" t="s">
+        <v>583</v>
+      </c>
+      <c r="E630" t="s">
         <v>584</v>
-      </c>
-      <c r="E630" t="s">
-        <v>585</v>
       </c>
       <c r="G630" t="s">
         <v>10</v>
@@ -55420,7 +55705,7 @@
     </row>
     <row r="631" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B631" s="1">
         <v>3</v>
@@ -55429,10 +55714,10 @@
         <v>90</v>
       </c>
       <c r="D631" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E631" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E631" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G631" s="1" t="s">
         <v>10</v>
